--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="263">
   <si>
     <t>anchor score</t>
   </si>
@@ -79,172 +79,172 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>providing</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>providing</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>security</t>
   </si>
   <si>
     <t>wu</t>
@@ -1168,10 +1168,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>0.9777777777777777</v>
@@ -1400,7 +1400,7 @@
         <v>95</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6">
         <v>0.9615384615384616</v>
@@ -1450,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
         <v>0.9482758620689655</v>
@@ -1500,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>0.9444444444444444</v>
@@ -1550,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1600,7 +1600,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>0.9333333333333333</v>
@@ -1650,7 +1650,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>0.905982905982906</v>
@@ -1700,7 +1700,7 @@
         <v>343</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
         <v>0.8947368421052632</v>
@@ -1750,7 +1750,7 @@
         <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
         <v>0.8723404255319149</v>
@@ -1800,7 +1800,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1850,7 +1850,7 @@
         <v>128</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>0.8545454545454545</v>
@@ -1879,28 +1879,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.09859154929577464</v>
+        <v>0.064</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>0.93</v>
+        <v>0.11</v>
       </c>
       <c r="F16">
-        <v>0.06999999999999995</v>
+        <v>0.89</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>0.84</v>
@@ -1929,28 +1929,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.064</v>
+        <v>0.01862745098039216</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="E17">
-        <v>0.11</v>
+        <v>0.88</v>
       </c>
       <c r="F17">
-        <v>0.89</v>
+        <v>0.12</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>234</v>
+        <v>1001</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
         <v>0.8359375</v>
@@ -1979,28 +1979,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01862745098039216</v>
+        <v>0.0177045177045177</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>160</v>
+        <v>534</v>
       </c>
       <c r="E18">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F18">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1001</v>
+        <v>1609</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>0.8125</v>
@@ -2029,13 +2029,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0177045177045177</v>
+        <v>0.01533219761499148</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>534</v>
+        <v>795</v>
       </c>
       <c r="E19">
         <v>0.95</v>
@@ -2047,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1609</v>
+        <v>2312</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>0.8125</v>
@@ -2079,28 +2079,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01533219761499148</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>795</v>
+        <v>97</v>
       </c>
       <c r="E20">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="F20">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2312</v>
+        <v>871</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>0.8076923076923077</v>
@@ -2129,28 +2129,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01470588235294118</v>
+        <v>0.009874667679453095</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>97</v>
+        <v>594</v>
       </c>
       <c r="E21">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="F21">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>871</v>
+        <v>2607</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>0.7941176470588235</v>
@@ -2175,32 +2175,8 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.009874667679453095</v>
-      </c>
-      <c r="C22">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>594</v>
-      </c>
-      <c r="E22">
-        <v>0.96</v>
-      </c>
-      <c r="F22">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2607</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22">
         <v>0.7777777777777778</v>
@@ -2226,7 +2202,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>0.7777777777777778</v>
@@ -2252,7 +2228,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>0.7588652482269503</v>
@@ -2278,7 +2254,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
         <v>0.7579617834394905</v>
@@ -2304,7 +2280,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26">
         <v>0.7368421052631579</v>
@@ -2330,7 +2306,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
         <v>0.7368421052631579</v>
@@ -2356,33 +2332,33 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.7324561403508771</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L28">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>0.7272727272727273</v>
@@ -2408,16 +2384,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2429,21 +2405,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.7083333333333334</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2455,90 +2431,90 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.7058823529411765</v>
+        <v>0.7</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33">
         <v>0.7</v>
       </c>
       <c r="L33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M33">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.7</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L34">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M34">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35">
         <v>0.6904761904761905</v>
@@ -2564,7 +2540,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36">
         <v>0.6888888888888889</v>
@@ -2590,7 +2566,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37">
         <v>0.6818181818181818</v>
@@ -2616,7 +2592,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K38">
         <v>0.6785714285714286</v>
@@ -2642,7 +2618,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39">
         <v>0.6538461538461539</v>
@@ -2668,7 +2644,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K40">
         <v>0.6451612903225806</v>
@@ -2694,7 +2670,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K41">
         <v>0.6410256410256411</v>
@@ -2720,7 +2696,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K42">
         <v>0.6363636363636364</v>
@@ -2746,7 +2722,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K43">
         <v>0.6333333333333333</v>
@@ -2772,7 +2748,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K44">
         <v>0.6285714285714286</v>
@@ -2798,7 +2774,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K45">
         <v>0.6212121212121212</v>
@@ -2824,7 +2800,7 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K46">
         <v>0.6131578947368421</v>
@@ -2850,28 +2826,28 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.6073619631901841</v>
+        <v>0.6</v>
       </c>
       <c r="L47">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2879,13 +2855,13 @@
         <v>73</v>
       </c>
       <c r="K48">
-        <v>0.6</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2897,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2905,25 +2881,25 @@
         <v>74</v>
       </c>
       <c r="K49">
-        <v>0.5909090909090909</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2931,25 +2907,25 @@
         <v>75</v>
       </c>
       <c r="K50">
-        <v>0.5869565217391305</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2957,25 +2933,25 @@
         <v>76</v>
       </c>
       <c r="K51">
-        <v>0.5833333333333334</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="N51">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -5944,7 +5920,7 @@
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K166">
         <v>0.2471507652230544</v>
@@ -6152,7 +6128,7 @@
     </row>
     <row r="174" spans="10:17">
       <c r="J174" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K174">
         <v>0.238883632923368</v>
@@ -7218,7 +7194,7 @@
     </row>
     <row r="215" spans="10:17">
       <c r="J215" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K215">
         <v>0.1788976377952756</v>
@@ -7634,7 +7610,7 @@
     </row>
     <row r="231" spans="10:17">
       <c r="J231" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K231">
         <v>0.1234676007005254</v>
@@ -7816,7 +7792,7 @@
     </row>
     <row r="238" spans="10:17">
       <c r="J238" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K238">
         <v>0.08795811518324607</v>
